--- a/document_segmentation/data/Analysis Renate 1547.xlsx
+++ b/document_segmentation/data/Analysis Renate 1547.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10211"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carstenschnober/LAHTeR/workspace/document-segmentation/document_segmentation/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ia\Huygens$\home\RenateSm\Documents\GLOBALISE\Analysis inventory numbers 1547 and 1557 (document segmentation)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84A6FDA-6544-4E41-89F9-85B1A8B4A968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13220" yWindow="3920" windowWidth="41380" windowHeight="18920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13215" yWindow="3915" windowWidth="41385" windowHeight="18915"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -2134,7 +2133,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2510,27 +2509,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:E691"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A656" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A225" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D243" sqref="D243"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2547,7 +2546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2555,7 +2554,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2563,7 +2562,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2571,7 +2570,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2579,7 +2578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -2587,7 +2586,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2595,7 +2594,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2603,7 +2602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -2611,7 +2610,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -2619,7 +2618,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -2627,7 +2626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2635,7 +2634,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -2643,7 +2642,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -2651,7 +2650,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -2659,7 +2658,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -2670,7 +2669,7 @@
         <v>40600</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -2678,7 +2677,7 @@
         <v>40600</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -2686,7 +2685,7 @@
         <v>40600</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -2694,7 +2693,7 @@
         <v>40600</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -2705,7 +2704,7 @@
         <v>40600</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -2713,7 +2712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -2721,7 +2720,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -2729,7 +2728,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -2737,7 +2736,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -2745,7 +2744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -2753,7 +2752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -2761,7 +2760,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -2772,7 +2771,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -2780,7 +2779,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -2788,7 +2787,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -2796,7 +2795,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -2804,7 +2803,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -2812,7 +2811,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -2820,7 +2819,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -2828,7 +2827,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -2836,7 +2835,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -2844,7 +2843,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -2852,7 +2851,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -2860,7 +2859,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -2868,7 +2867,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -2876,7 +2875,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -2884,7 +2883,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -2892,7 +2891,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -2900,7 +2899,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -2908,7 +2907,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -2916,7 +2915,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -2924,7 +2923,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -2932,7 +2931,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -2940,7 +2939,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>60</v>
       </c>
@@ -2948,7 +2947,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -2956,7 +2955,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -2964,7 +2963,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>63</v>
       </c>
@@ -2972,7 +2971,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -2980,7 +2979,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -2988,7 +2987,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>66</v>
       </c>
@@ -2996,7 +2995,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>67</v>
       </c>
@@ -3004,7 +3003,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>68</v>
       </c>
@@ -3012,7 +3011,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>69</v>
       </c>
@@ -3020,7 +3019,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>70</v>
       </c>
@@ -3028,7 +3027,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>71</v>
       </c>
@@ -3036,7 +3035,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>72</v>
       </c>
@@ -3044,7 +3043,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>73</v>
       </c>
@@ -3052,7 +3051,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>74</v>
       </c>
@@ -3060,7 +3059,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>75</v>
       </c>
@@ -3068,7 +3067,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>76</v>
       </c>
@@ -3076,7 +3075,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>77</v>
       </c>
@@ -3084,7 +3083,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>78</v>
       </c>
@@ -3092,7 +3091,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>79</v>
       </c>
@@ -3100,7 +3099,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>80</v>
       </c>
@@ -3108,7 +3107,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>81</v>
       </c>
@@ -3116,7 +3115,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>82</v>
       </c>
@@ -3124,7 +3123,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>83</v>
       </c>
@@ -3132,7 +3131,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>84</v>
       </c>
@@ -3140,7 +3139,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>85</v>
       </c>
@@ -3148,7 +3147,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>86</v>
       </c>
@@ -3156,7 +3155,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>87</v>
       </c>
@@ -3164,7 +3163,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>88</v>
       </c>
@@ -3172,7 +3171,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>89</v>
       </c>
@@ -3180,7 +3179,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>90</v>
       </c>
@@ -3188,7 +3187,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>91</v>
       </c>
@@ -3196,7 +3195,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>92</v>
       </c>
@@ -3204,7 +3203,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>93</v>
       </c>
@@ -3212,7 +3211,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>94</v>
       </c>
@@ -3220,7 +3219,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>95</v>
       </c>
@@ -3228,7 +3227,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>96</v>
       </c>
@@ -3236,7 +3235,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>97</v>
       </c>
@@ -3244,7 +3243,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>98</v>
       </c>
@@ -3252,7 +3251,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>99</v>
       </c>
@@ -3260,7 +3259,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>100</v>
       </c>
@@ -3268,7 +3267,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>101</v>
       </c>
@@ -3276,7 +3275,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>102</v>
       </c>
@@ -3284,7 +3283,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>103</v>
       </c>
@@ -3292,7 +3291,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>104</v>
       </c>
@@ -3300,7 +3299,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>105</v>
       </c>
@@ -3308,7 +3307,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>106</v>
       </c>
@@ -3316,7 +3315,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>107</v>
       </c>
@@ -3327,7 +3326,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>108</v>
       </c>
@@ -3335,7 +3334,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>109</v>
       </c>
@@ -3343,7 +3342,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>110</v>
       </c>
@@ -3354,7 +3353,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>111</v>
       </c>
@@ -3362,7 +3361,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>112</v>
       </c>
@@ -3370,7 +3369,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>113</v>
       </c>
@@ -3378,7 +3377,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>114</v>
       </c>
@@ -3386,7 +3385,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>115</v>
       </c>
@@ -3394,7 +3393,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>116</v>
       </c>
@@ -3402,7 +3401,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>117</v>
       </c>
@@ -3413,7 +3412,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>118</v>
       </c>
@@ -3424,7 +3423,7 @@
         <v>40603</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>119</v>
       </c>
@@ -3435,7 +3434,7 @@
         <v>40603</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>119</v>
       </c>
@@ -3446,7 +3445,7 @@
         <v>40604</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>121</v>
       </c>
@@ -3454,7 +3453,7 @@
         <v>40604</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>122</v>
       </c>
@@ -3465,7 +3464,7 @@
         <v>40604</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>122</v>
       </c>
@@ -3476,7 +3475,7 @@
         <v>40605</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>123</v>
       </c>
@@ -3484,7 +3483,7 @@
         <v>40605</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>124</v>
       </c>
@@ -3495,7 +3494,7 @@
         <v>40605</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>125</v>
       </c>
@@ -3503,7 +3502,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>126</v>
       </c>
@@ -3511,7 +3510,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>127</v>
       </c>
@@ -3519,7 +3518,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>128</v>
       </c>
@@ -3527,7 +3526,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>129</v>
       </c>
@@ -3535,7 +3534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>130</v>
       </c>
@@ -3543,7 +3542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>131</v>
       </c>
@@ -3554,7 +3553,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>132</v>
       </c>
@@ -3562,7 +3561,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>133</v>
       </c>
@@ -3570,7 +3569,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>134</v>
       </c>
@@ -3578,7 +3577,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>135</v>
       </c>
@@ -3586,7 +3585,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>136</v>
       </c>
@@ -3594,7 +3593,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>137</v>
       </c>
@@ -3602,7 +3601,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>138</v>
       </c>
@@ -3610,7 +3609,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>139</v>
       </c>
@@ -3618,7 +3617,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>140</v>
       </c>
@@ -3626,7 +3625,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>141</v>
       </c>
@@ -3634,7 +3633,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>142</v>
       </c>
@@ -3642,7 +3641,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>143</v>
       </c>
@@ -3650,7 +3649,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>144</v>
       </c>
@@ -3658,7 +3657,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>145</v>
       </c>
@@ -3666,7 +3665,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>146</v>
       </c>
@@ -3674,7 +3673,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>147</v>
       </c>
@@ -3682,7 +3681,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>148</v>
       </c>
@@ -3690,7 +3689,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>149</v>
       </c>
@@ -3698,7 +3697,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>150</v>
       </c>
@@ -3706,7 +3705,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>151</v>
       </c>
@@ -3714,7 +3713,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>152</v>
       </c>
@@ -3722,7 +3721,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>153</v>
       </c>
@@ -3730,7 +3729,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>154</v>
       </c>
@@ -3738,7 +3737,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>155</v>
       </c>
@@ -3746,7 +3745,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>156</v>
       </c>
@@ -3754,7 +3753,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>157</v>
       </c>
@@ -3762,7 +3761,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>158</v>
       </c>
@@ -3770,7 +3769,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>159</v>
       </c>
@@ -3778,7 +3777,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>160</v>
       </c>
@@ -3786,7 +3785,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>161</v>
       </c>
@@ -3794,7 +3793,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>162</v>
       </c>
@@ -3802,7 +3801,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>163</v>
       </c>
@@ -3810,7 +3809,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>164</v>
       </c>
@@ -3818,7 +3817,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>165</v>
       </c>
@@ -3826,7 +3825,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>166</v>
       </c>
@@ -3834,7 +3833,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>167</v>
       </c>
@@ -3842,7 +3841,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>168</v>
       </c>
@@ -3850,7 +3849,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>169</v>
       </c>
@@ -3858,7 +3857,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>170</v>
       </c>
@@ -3866,7 +3865,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>171</v>
       </c>
@@ -3874,7 +3873,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>172</v>
       </c>
@@ -3882,7 +3881,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>173</v>
       </c>
@@ -3890,7 +3889,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>174</v>
       </c>
@@ -3898,7 +3897,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>175</v>
       </c>
@@ -3906,7 +3905,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>176</v>
       </c>
@@ -3914,7 +3913,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>177</v>
       </c>
@@ -3922,7 +3921,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>178</v>
       </c>
@@ -3930,7 +3929,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>179</v>
       </c>
@@ -3938,7 +3937,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>180</v>
       </c>
@@ -3946,7 +3945,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>181</v>
       </c>
@@ -3954,7 +3953,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>182</v>
       </c>
@@ -3962,7 +3961,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>183</v>
       </c>
@@ -3970,7 +3969,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>184</v>
       </c>
@@ -3978,7 +3977,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>185</v>
       </c>
@@ -3986,7 +3985,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>186</v>
       </c>
@@ -3994,7 +3993,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>187</v>
       </c>
@@ -4002,7 +4001,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>188</v>
       </c>
@@ -4010,7 +4009,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>189</v>
       </c>
@@ -4018,7 +4017,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>190</v>
       </c>
@@ -4026,7 +4025,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>191</v>
       </c>
@@ -4034,7 +4033,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>192</v>
       </c>
@@ -4042,7 +4041,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>193</v>
       </c>
@@ -4050,7 +4049,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>194</v>
       </c>
@@ -4058,7 +4057,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>195</v>
       </c>
@@ -4066,7 +4065,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>196</v>
       </c>
@@ -4074,7 +4073,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>197</v>
       </c>
@@ -4082,7 +4081,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>198</v>
       </c>
@@ -4090,7 +4089,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>199</v>
       </c>
@@ -4098,7 +4097,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>200</v>
       </c>
@@ -4106,7 +4105,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>201</v>
       </c>
@@ -4114,7 +4113,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>202</v>
       </c>
@@ -4122,7 +4121,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>203</v>
       </c>
@@ -4130,7 +4129,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>204</v>
       </c>
@@ -4138,7 +4137,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>205</v>
       </c>
@@ -4146,7 +4145,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>206</v>
       </c>
@@ -4154,7 +4153,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>207</v>
       </c>
@@ -4162,7 +4161,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>208</v>
       </c>
@@ -4170,7 +4169,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>209</v>
       </c>
@@ -4178,7 +4177,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>210</v>
       </c>
@@ -4186,7 +4185,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>211</v>
       </c>
@@ -4194,7 +4193,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>212</v>
       </c>
@@ -4202,7 +4201,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>213</v>
       </c>
@@ -4210,7 +4209,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>214</v>
       </c>
@@ -4218,7 +4217,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>215</v>
       </c>
@@ -4226,7 +4225,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>216</v>
       </c>
@@ -4234,7 +4233,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>217</v>
       </c>
@@ -4242,7 +4241,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>218</v>
       </c>
@@ -4250,7 +4249,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>219</v>
       </c>
@@ -4258,7 +4257,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>220</v>
       </c>
@@ -4266,7 +4265,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>221</v>
       </c>
@@ -4274,7 +4273,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>222</v>
       </c>
@@ -4282,7 +4281,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>223</v>
       </c>
@@ -4290,7 +4289,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>224</v>
       </c>
@@ -4298,7 +4297,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>225</v>
       </c>
@@ -4306,7 +4305,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>226</v>
       </c>
@@ -4314,7 +4313,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>227</v>
       </c>
@@ -4322,7 +4321,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>228</v>
       </c>
@@ -4330,7 +4329,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>229</v>
       </c>
@@ -4338,7 +4337,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>230</v>
       </c>
@@ -4346,7 +4345,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>231</v>
       </c>
@@ -4354,7 +4353,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>232</v>
       </c>
@@ -4362,7 +4361,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>233</v>
       </c>
@@ -4370,7 +4369,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>234</v>
       </c>
@@ -4378,7 +4377,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>235</v>
       </c>
@@ -4386,7 +4385,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>236</v>
       </c>
@@ -4394,7 +4393,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>237</v>
       </c>
@@ -4402,7 +4401,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>238</v>
       </c>
@@ -4410,7 +4409,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>239</v>
       </c>
@@ -4418,7 +4417,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>240</v>
       </c>
@@ -4426,7 +4425,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>241</v>
       </c>
@@ -4434,7 +4433,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>242</v>
       </c>
@@ -4442,7 +4441,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>243</v>
       </c>
@@ -4450,7 +4449,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>244</v>
       </c>
@@ -4458,7 +4457,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>245</v>
       </c>
@@ -4466,7 +4465,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>246</v>
       </c>
@@ -4474,7 +4473,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>247</v>
       </c>
@@ -4485,7 +4484,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>248</v>
       </c>
@@ -4493,7 +4492,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>249</v>
       </c>
@@ -4507,7 +4506,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>250</v>
       </c>
@@ -4515,7 +4514,7 @@
         <v>40607</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>251</v>
       </c>
@@ -4523,7 +4522,7 @@
         <v>40607</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>252</v>
       </c>
@@ -4534,7 +4533,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>253</v>
       </c>
@@ -4542,7 +4541,7 @@
         <v>40607</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>254</v>
       </c>
@@ -4550,7 +4549,7 @@
         <v>40607</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>255</v>
       </c>
@@ -4558,7 +4557,7 @@
         <v>40607</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>256</v>
       </c>
@@ -4569,7 +4568,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>257</v>
       </c>
@@ -4577,7 +4576,7 @@
         <v>40607</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>258</v>
       </c>
@@ -4588,7 +4587,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>259</v>
       </c>
@@ -4596,7 +4595,7 @@
         <v>40607</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>260</v>
       </c>
@@ -4604,7 +4603,7 @@
         <v>40607</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>261</v>
       </c>
@@ -4612,7 +4611,7 @@
         <v>40607</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>262</v>
       </c>
@@ -4623,7 +4622,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>263</v>
       </c>
@@ -4631,7 +4630,7 @@
         <v>40607</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>264</v>
       </c>
@@ -4639,7 +4638,7 @@
         <v>40607</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>265</v>
       </c>
@@ -4647,7 +4646,7 @@
         <v>40607</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>266</v>
       </c>
@@ -4655,7 +4654,7 @@
         <v>40607</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>267</v>
       </c>
@@ -4663,7 +4662,7 @@
         <v>40607</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>268</v>
       </c>
@@ -4674,7 +4673,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>269</v>
       </c>
@@ -4682,7 +4681,7 @@
         <v>40607</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>270</v>
       </c>
@@ -4690,7 +4689,7 @@
         <v>40607</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>271</v>
       </c>
@@ -4698,7 +4697,7 @@
         <v>40607</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>272</v>
       </c>
@@ -4709,7 +4708,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>273</v>
       </c>
@@ -4717,7 +4716,7 @@
         <v>40607</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>274</v>
       </c>
@@ -4728,7 +4727,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>275</v>
       </c>
@@ -4739,7 +4738,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>276</v>
       </c>
@@ -4747,7 +4746,7 @@
         <v>40607</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>277</v>
       </c>
@@ -4758,7 +4757,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>278</v>
       </c>
@@ -4769,7 +4768,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>279</v>
       </c>
@@ -4777,7 +4776,7 @@
         <v>40607</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>280</v>
       </c>
@@ -4785,7 +4784,7 @@
         <v>40607</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>281</v>
       </c>
@@ -4793,7 +4792,7 @@
         <v>40607</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>282</v>
       </c>
@@ -4801,7 +4800,7 @@
         <v>40607</v>
       </c>
     </row>
-    <row r="274" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>283</v>
       </c>
@@ -4809,7 +4808,7 @@
         <v>40607</v>
       </c>
     </row>
-    <row r="275" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>284</v>
       </c>
@@ -4823,7 +4822,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="276" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>285</v>
       </c>
@@ -4831,7 +4830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>286</v>
       </c>
@@ -4839,7 +4838,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="278" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>287</v>
       </c>
@@ -4853,7 +4852,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="279" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>289</v>
       </c>
@@ -4864,7 +4863,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="280" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>290</v>
       </c>
@@ -4875,7 +4874,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="281" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>291</v>
       </c>
@@ -4883,7 +4882,7 @@
         <v>40608</v>
       </c>
     </row>
-    <row r="282" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>292</v>
       </c>
@@ -4891,7 +4890,7 @@
         <v>40608</v>
       </c>
     </row>
-    <row r="283" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>293</v>
       </c>
@@ -4902,7 +4901,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="284" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>294</v>
       </c>
@@ -4916,7 +4915,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="285" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>295</v>
       </c>
@@ -4924,7 +4923,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="286" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>296</v>
       </c>
@@ -4938,7 +4937,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="287" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>297</v>
       </c>
@@ -4946,7 +4945,7 @@
         <v>40609</v>
       </c>
     </row>
-    <row r="288" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>298</v>
       </c>
@@ -4954,7 +4953,7 @@
         <v>40609</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>299</v>
       </c>
@@ -4965,7 +4964,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>300</v>
       </c>
@@ -4973,7 +4972,7 @@
         <v>40609</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>301</v>
       </c>
@@ -4984,7 +4983,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>302</v>
       </c>
@@ -4995,7 +4994,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>303</v>
       </c>
@@ -5003,7 +5002,7 @@
         <v>40609</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>304</v>
       </c>
@@ -5011,7 +5010,7 @@
         <v>40609</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>305</v>
       </c>
@@ -5022,7 +5021,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>306</v>
       </c>
@@ -5030,7 +5029,7 @@
         <v>40609</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>307</v>
       </c>
@@ -5038,7 +5037,7 @@
         <v>40609</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>308</v>
       </c>
@@ -5049,7 +5048,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>309</v>
       </c>
@@ -5060,7 +5059,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>311</v>
       </c>
@@ -5071,7 +5070,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>312</v>
       </c>
@@ -5082,7 +5081,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>313</v>
       </c>
@@ -5093,7 +5092,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>314</v>
       </c>
@@ -5104,7 +5103,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>315</v>
       </c>
@@ -5115,7 +5114,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>316</v>
       </c>
@@ -5126,7 +5125,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>317</v>
       </c>
@@ -5134,7 +5133,7 @@
         <v>40609</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>318</v>
       </c>
@@ -5142,7 +5141,7 @@
         <v>40609</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>319</v>
       </c>
@@ -5153,7 +5152,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>320</v>
       </c>
@@ -5161,7 +5160,7 @@
         <v>40609</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>321</v>
       </c>
@@ -5169,7 +5168,7 @@
         <v>40609</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>322</v>
       </c>
@@ -5177,7 +5176,7 @@
         <v>40609</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>323</v>
       </c>
@@ -5188,7 +5187,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>324</v>
       </c>
@@ -5196,7 +5195,7 @@
         <v>40609</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>325</v>
       </c>
@@ -5204,7 +5203,7 @@
         <v>40609</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>326</v>
       </c>
@@ -5212,7 +5211,7 @@
         <v>40609</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>327</v>
       </c>
@@ -5220,7 +5219,7 @@
         <v>40609</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>328</v>
       </c>
@@ -5231,7 +5230,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>329</v>
       </c>
@@ -5239,7 +5238,7 @@
         <v>40609</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>330</v>
       </c>
@@ -5250,7 +5249,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>331</v>
       </c>
@@ -5261,7 +5260,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>332</v>
       </c>
@@ -5272,7 +5271,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>333</v>
       </c>
@@ -5283,7 +5282,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>334</v>
       </c>
@@ -5291,7 +5290,7 @@
         <v>40609</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>335</v>
       </c>
@@ -5299,7 +5298,7 @@
         <v>40609</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>336</v>
       </c>
@@ -5307,7 +5306,7 @@
         <v>40609</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>337</v>
       </c>
@@ -5318,7 +5317,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>338</v>
       </c>
@@ -5326,7 +5325,7 @@
         <v>40609</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>339</v>
       </c>
@@ -5337,7 +5336,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>340</v>
       </c>
@@ -5348,7 +5347,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>341</v>
       </c>
@@ -5356,7 +5355,7 @@
         <v>40609</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>342</v>
       </c>
@@ -5367,7 +5366,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>343</v>
       </c>
@@ -5375,7 +5374,7 @@
         <v>40609</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>344</v>
       </c>
@@ -5383,7 +5382,7 @@
         <v>40609</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>345</v>
       </c>
@@ -5394,7 +5393,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>346</v>
       </c>
@@ -5405,7 +5404,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>347</v>
       </c>
@@ -5416,7 +5415,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="337" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>348</v>
       </c>
@@ -5424,7 +5423,7 @@
         <v>40609</v>
       </c>
     </row>
-    <row r="338" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>349</v>
       </c>
@@ -5432,7 +5431,7 @@
         <v>40609</v>
       </c>
     </row>
-    <row r="339" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>350</v>
       </c>
@@ -5443,7 +5442,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="340" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>351</v>
       </c>
@@ -5454,7 +5453,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="341" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>352</v>
       </c>
@@ -5462,7 +5461,7 @@
         <v>40609</v>
       </c>
     </row>
-    <row r="342" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>353</v>
       </c>
@@ -5473,7 +5472,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="343" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>354</v>
       </c>
@@ -5484,7 +5483,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="344" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>355</v>
       </c>
@@ -5492,7 +5491,7 @@
         <v>40609</v>
       </c>
     </row>
-    <row r="345" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>356</v>
       </c>
@@ -5503,7 +5502,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="346" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>357</v>
       </c>
@@ -5514,7 +5513,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="347" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>358</v>
       </c>
@@ -5525,7 +5524,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="348" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>359</v>
       </c>
@@ -5536,7 +5535,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="349" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>360</v>
       </c>
@@ -5544,7 +5543,7 @@
         <v>40609</v>
       </c>
     </row>
-    <row r="350" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>361</v>
       </c>
@@ -5558,7 +5557,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="351" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>362</v>
       </c>
@@ -5566,7 +5565,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="352" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>363</v>
       </c>
@@ -5574,7 +5573,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="353" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>364</v>
       </c>
@@ -5582,7 +5581,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="354" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>365</v>
       </c>
@@ -5596,7 +5595,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="355" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>366</v>
       </c>
@@ -5607,7 +5606,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="356" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>367</v>
       </c>
@@ -5621,7 +5620,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="357" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>368</v>
       </c>
@@ -5629,7 +5628,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="358" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>369</v>
       </c>
@@ -5643,7 +5642,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="359" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>370</v>
       </c>
@@ -5654,7 +5653,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="360" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>371</v>
       </c>
@@ -5665,7 +5664,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="361" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>372</v>
       </c>
@@ -5676,7 +5675,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="362" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>373</v>
       </c>
@@ -5690,7 +5689,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="363" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>374</v>
       </c>
@@ -5698,7 +5697,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="364" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>375</v>
       </c>
@@ -5706,7 +5705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="365" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>376</v>
       </c>
@@ -5714,7 +5713,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="366" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>377</v>
       </c>
@@ -5725,7 +5724,7 @@
         <v>40612</v>
       </c>
     </row>
-    <row r="367" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>378</v>
       </c>
@@ -5733,7 +5732,7 @@
         <v>40612</v>
       </c>
     </row>
-    <row r="368" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>379</v>
       </c>
@@ -5741,7 +5740,7 @@
         <v>40612</v>
       </c>
     </row>
-    <row r="369" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>380</v>
       </c>
@@ -5749,7 +5748,7 @@
         <v>40612</v>
       </c>
     </row>
-    <row r="370" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>381</v>
       </c>
@@ -5757,7 +5756,7 @@
         <v>40612</v>
       </c>
     </row>
-    <row r="371" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>382</v>
       </c>
@@ -5765,7 +5764,7 @@
         <v>40612</v>
       </c>
     </row>
-    <row r="372" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>383</v>
       </c>
@@ -5773,7 +5772,7 @@
         <v>40612</v>
       </c>
     </row>
-    <row r="373" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>384</v>
       </c>
@@ -5781,7 +5780,7 @@
         <v>40612</v>
       </c>
     </row>
-    <row r="374" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>385</v>
       </c>
@@ -5789,7 +5788,7 @@
         <v>40612</v>
       </c>
     </row>
-    <row r="375" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>386</v>
       </c>
@@ -5800,7 +5799,7 @@
         <v>40612</v>
       </c>
     </row>
-    <row r="376" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>387</v>
       </c>
@@ -5808,7 +5807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="377" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>388</v>
       </c>
@@ -5816,7 +5815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="378" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>389</v>
       </c>
@@ -5827,7 +5826,7 @@
         <v>40613</v>
       </c>
     </row>
-    <row r="379" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>390</v>
       </c>
@@ -5835,7 +5834,7 @@
         <v>40613</v>
       </c>
     </row>
-    <row r="380" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>391</v>
       </c>
@@ -5843,7 +5842,7 @@
         <v>40613</v>
       </c>
     </row>
-    <row r="381" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>392</v>
       </c>
@@ -5851,7 +5850,7 @@
         <v>40613</v>
       </c>
     </row>
-    <row r="382" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>393</v>
       </c>
@@ -5859,7 +5858,7 @@
         <v>40613</v>
       </c>
     </row>
-    <row r="383" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>394</v>
       </c>
@@ -5867,7 +5866,7 @@
         <v>40613</v>
       </c>
     </row>
-    <row r="384" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>395</v>
       </c>
@@ -5875,7 +5874,7 @@
         <v>40613</v>
       </c>
     </row>
-    <row r="385" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>396</v>
       </c>
@@ -5883,7 +5882,7 @@
         <v>40613</v>
       </c>
     </row>
-    <row r="386" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>397</v>
       </c>
@@ -5891,7 +5890,7 @@
         <v>40613</v>
       </c>
     </row>
-    <row r="387" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>398</v>
       </c>
@@ -5899,7 +5898,7 @@
         <v>40613</v>
       </c>
     </row>
-    <row r="388" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>399</v>
       </c>
@@ -5907,7 +5906,7 @@
         <v>40613</v>
       </c>
     </row>
-    <row r="389" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>400</v>
       </c>
@@ -5915,7 +5914,7 @@
         <v>40613</v>
       </c>
     </row>
-    <row r="390" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>401</v>
       </c>
@@ -5923,7 +5922,7 @@
         <v>40613</v>
       </c>
     </row>
-    <row r="391" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>402</v>
       </c>
@@ -5931,7 +5930,7 @@
         <v>40613</v>
       </c>
     </row>
-    <row r="392" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>403</v>
       </c>
@@ -5939,7 +5938,7 @@
         <v>40613</v>
       </c>
     </row>
-    <row r="393" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>404</v>
       </c>
@@ -5947,7 +5946,7 @@
         <v>40613</v>
       </c>
     </row>
-    <row r="394" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>405</v>
       </c>
@@ -5955,7 +5954,7 @@
         <v>40613</v>
       </c>
     </row>
-    <row r="395" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>406</v>
       </c>
@@ -5963,7 +5962,7 @@
         <v>40613</v>
       </c>
     </row>
-    <row r="396" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>407</v>
       </c>
@@ -5971,7 +5970,7 @@
         <v>40613</v>
       </c>
     </row>
-    <row r="397" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>408</v>
       </c>
@@ -5979,7 +5978,7 @@
         <v>40613</v>
       </c>
     </row>
-    <row r="398" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>409</v>
       </c>
@@ -5987,7 +5986,7 @@
         <v>40613</v>
       </c>
     </row>
-    <row r="399" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>410</v>
       </c>
@@ -5995,7 +5994,7 @@
         <v>40613</v>
       </c>
     </row>
-    <row r="400" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>411</v>
       </c>
@@ -6003,7 +6002,7 @@
         <v>40613</v>
       </c>
     </row>
-    <row r="401" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>412</v>
       </c>
@@ -6011,7 +6010,7 @@
         <v>40613</v>
       </c>
     </row>
-    <row r="402" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>413</v>
       </c>
@@ -6019,7 +6018,7 @@
         <v>40613</v>
       </c>
     </row>
-    <row r="403" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>414</v>
       </c>
@@ -6027,7 +6026,7 @@
         <v>40613</v>
       </c>
     </row>
-    <row r="404" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>415</v>
       </c>
@@ -6035,7 +6034,7 @@
         <v>40613</v>
       </c>
     </row>
-    <row r="405" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>416</v>
       </c>
@@ -6043,7 +6042,7 @@
         <v>40613</v>
       </c>
     </row>
-    <row r="406" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>417</v>
       </c>
@@ -6054,7 +6053,7 @@
         <v>40613</v>
       </c>
     </row>
-    <row r="407" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>418</v>
       </c>
@@ -6062,7 +6061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="408" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>419</v>
       </c>
@@ -6070,7 +6069,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="409" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>420</v>
       </c>
@@ -6078,7 +6077,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="410" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>421</v>
       </c>
@@ -6089,7 +6088,7 @@
         <v>40614</v>
       </c>
     </row>
-    <row r="411" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>422</v>
       </c>
@@ -6097,7 +6096,7 @@
         <v>40614</v>
       </c>
     </row>
-    <row r="412" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>423</v>
       </c>
@@ -6105,7 +6104,7 @@
         <v>40614</v>
       </c>
     </row>
-    <row r="413" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>424</v>
       </c>
@@ -6113,7 +6112,7 @@
         <v>40614</v>
       </c>
     </row>
-    <row r="414" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>425</v>
       </c>
@@ -6121,7 +6120,7 @@
         <v>40614</v>
       </c>
     </row>
-    <row r="415" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>426</v>
       </c>
@@ -6129,7 +6128,7 @@
         <v>40614</v>
       </c>
     </row>
-    <row r="416" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>427</v>
       </c>
@@ -6137,7 +6136,7 @@
         <v>40614</v>
       </c>
     </row>
-    <row r="417" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>428</v>
       </c>
@@ -6145,7 +6144,7 @@
         <v>40614</v>
       </c>
     </row>
-    <row r="418" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>429</v>
       </c>
@@ -6153,7 +6152,7 @@
         <v>40614</v>
       </c>
     </row>
-    <row r="419" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>430</v>
       </c>
@@ -6161,7 +6160,7 @@
         <v>40614</v>
       </c>
     </row>
-    <row r="420" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>431</v>
       </c>
@@ -6169,7 +6168,7 @@
         <v>40614</v>
       </c>
     </row>
-    <row r="421" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>432</v>
       </c>
@@ -6177,7 +6176,7 @@
         <v>40614</v>
       </c>
     </row>
-    <row r="422" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>433</v>
       </c>
@@ -6185,7 +6184,7 @@
         <v>40614</v>
       </c>
     </row>
-    <row r="423" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>434</v>
       </c>
@@ -6193,7 +6192,7 @@
         <v>40614</v>
       </c>
     </row>
-    <row r="424" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>435</v>
       </c>
@@ -6201,7 +6200,7 @@
         <v>40614</v>
       </c>
     </row>
-    <row r="425" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>436</v>
       </c>
@@ -6209,7 +6208,7 @@
         <v>40614</v>
       </c>
     </row>
-    <row r="426" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>437</v>
       </c>
@@ -6217,7 +6216,7 @@
         <v>40614</v>
       </c>
     </row>
-    <row r="427" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>438</v>
       </c>
@@ -6225,7 +6224,7 @@
         <v>40614</v>
       </c>
     </row>
-    <row r="428" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>439</v>
       </c>
@@ -6233,7 +6232,7 @@
         <v>40614</v>
       </c>
     </row>
-    <row r="429" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>440</v>
       </c>
@@ -6241,7 +6240,7 @@
         <v>40614</v>
       </c>
     </row>
-    <row r="430" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>441</v>
       </c>
@@ -6249,7 +6248,7 @@
         <v>40614</v>
       </c>
     </row>
-    <row r="431" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>442</v>
       </c>
@@ -6257,7 +6256,7 @@
         <v>40614</v>
       </c>
     </row>
-    <row r="432" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>443</v>
       </c>
@@ -6268,7 +6267,7 @@
         <v>40614</v>
       </c>
     </row>
-    <row r="433" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>444</v>
       </c>
@@ -6276,7 +6275,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="434" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>445</v>
       </c>
@@ -6287,7 +6286,7 @@
         <v>40615</v>
       </c>
     </row>
-    <row r="435" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>446</v>
       </c>
@@ -6295,7 +6294,7 @@
         <v>40615</v>
       </c>
     </row>
-    <row r="436" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>447</v>
       </c>
@@ -6303,7 +6302,7 @@
         <v>40615</v>
       </c>
     </row>
-    <row r="437" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>448</v>
       </c>
@@ -6311,7 +6310,7 @@
         <v>40615</v>
       </c>
     </row>
-    <row r="438" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>449</v>
       </c>
@@ -6319,7 +6318,7 @@
         <v>40615</v>
       </c>
     </row>
-    <row r="439" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>450</v>
       </c>
@@ -6327,7 +6326,7 @@
         <v>40615</v>
       </c>
     </row>
-    <row r="440" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>451</v>
       </c>
@@ -6335,7 +6334,7 @@
         <v>40615</v>
       </c>
     </row>
-    <row r="441" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>452</v>
       </c>
@@ -6343,7 +6342,7 @@
         <v>40615</v>
       </c>
     </row>
-    <row r="442" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>453</v>
       </c>
@@ -6351,7 +6350,7 @@
         <v>40615</v>
       </c>
     </row>
-    <row r="443" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>454</v>
       </c>
@@ -6359,7 +6358,7 @@
         <v>40615</v>
       </c>
     </row>
-    <row r="444" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>455</v>
       </c>
@@ -6367,7 +6366,7 @@
         <v>40615</v>
       </c>
     </row>
-    <row r="445" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>456</v>
       </c>
@@ -6375,7 +6374,7 @@
         <v>40615</v>
       </c>
     </row>
-    <row r="446" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>457</v>
       </c>
@@ -6383,7 +6382,7 @@
         <v>40615</v>
       </c>
     </row>
-    <row r="447" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>458</v>
       </c>
@@ -6391,7 +6390,7 @@
         <v>40615</v>
       </c>
     </row>
-    <row r="448" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>459</v>
       </c>
@@ -6399,7 +6398,7 @@
         <v>40615</v>
       </c>
     </row>
-    <row r="449" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>460</v>
       </c>
@@ -6407,7 +6406,7 @@
         <v>40615</v>
       </c>
     </row>
-    <row r="450" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>461</v>
       </c>
@@ -6415,7 +6414,7 @@
         <v>40615</v>
       </c>
     </row>
-    <row r="451" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>462</v>
       </c>
@@ -6423,7 +6422,7 @@
         <v>40615</v>
       </c>
     </row>
-    <row r="452" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>463</v>
       </c>
@@ -6431,7 +6430,7 @@
         <v>40615</v>
       </c>
     </row>
-    <row r="453" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>464</v>
       </c>
@@ -6439,7 +6438,7 @@
         <v>40615</v>
       </c>
     </row>
-    <row r="454" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>465</v>
       </c>
@@ -6447,7 +6446,7 @@
         <v>40615</v>
       </c>
     </row>
-    <row r="455" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>466</v>
       </c>
@@ -6455,7 +6454,7 @@
         <v>40615</v>
       </c>
     </row>
-    <row r="456" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>467</v>
       </c>
@@ -6463,7 +6462,7 @@
         <v>40615</v>
       </c>
     </row>
-    <row r="457" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>468</v>
       </c>
@@ -6471,7 +6470,7 @@
         <v>40615</v>
       </c>
     </row>
-    <row r="458" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>469</v>
       </c>
@@ -6482,7 +6481,7 @@
         <v>40615</v>
       </c>
     </row>
-    <row r="459" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>470</v>
       </c>
@@ -6490,7 +6489,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="460" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>471</v>
       </c>
@@ -6498,7 +6497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="461" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>472</v>
       </c>
@@ -6506,7 +6505,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="462" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>473</v>
       </c>
@@ -6517,7 +6516,7 @@
         <v>40616</v>
       </c>
     </row>
-    <row r="463" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>474</v>
       </c>
@@ -6525,7 +6524,7 @@
         <v>40616</v>
       </c>
     </row>
-    <row r="464" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>475</v>
       </c>
@@ -6533,7 +6532,7 @@
         <v>40616</v>
       </c>
     </row>
-    <row r="465" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>476</v>
       </c>
@@ -6541,7 +6540,7 @@
         <v>40616</v>
       </c>
     </row>
-    <row r="466" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>477</v>
       </c>
@@ -6549,7 +6548,7 @@
         <v>40616</v>
       </c>
     </row>
-    <row r="467" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>478</v>
       </c>
@@ -6557,7 +6556,7 @@
         <v>40616</v>
       </c>
     </row>
-    <row r="468" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>479</v>
       </c>
@@ -6565,7 +6564,7 @@
         <v>40616</v>
       </c>
     </row>
-    <row r="469" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>480</v>
       </c>
@@ -6573,7 +6572,7 @@
         <v>40616</v>
       </c>
     </row>
-    <row r="470" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>481</v>
       </c>
@@ -6584,7 +6583,7 @@
         <v>40616</v>
       </c>
     </row>
-    <row r="471" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>482</v>
       </c>
@@ -6592,7 +6591,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="472" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>483</v>
       </c>
@@ -6600,7 +6599,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="473" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>484</v>
       </c>
@@ -6608,7 +6607,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="474" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>485</v>
       </c>
@@ -6619,7 +6618,7 @@
         <v>40617</v>
       </c>
     </row>
-    <row r="475" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>486</v>
       </c>
@@ -6627,7 +6626,7 @@
         <v>40617</v>
       </c>
     </row>
-    <row r="476" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>487</v>
       </c>
@@ -6635,7 +6634,7 @@
         <v>40617</v>
       </c>
     </row>
-    <row r="477" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>488</v>
       </c>
@@ -6643,7 +6642,7 @@
         <v>40617</v>
       </c>
     </row>
-    <row r="478" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>489</v>
       </c>
@@ -6651,7 +6650,7 @@
         <v>40617</v>
       </c>
     </row>
-    <row r="479" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>490</v>
       </c>
@@ -6659,7 +6658,7 @@
         <v>40617</v>
       </c>
     </row>
-    <row r="480" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>491</v>
       </c>
@@ -6667,7 +6666,7 @@
         <v>40617</v>
       </c>
     </row>
-    <row r="481" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>492</v>
       </c>
@@ -6675,7 +6674,7 @@
         <v>40617</v>
       </c>
     </row>
-    <row r="482" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>493</v>
       </c>
@@ -6683,7 +6682,7 @@
         <v>40617</v>
       </c>
     </row>
-    <row r="483" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>494</v>
       </c>
@@ -6694,7 +6693,7 @@
         <v>40617</v>
       </c>
     </row>
-    <row r="484" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>495</v>
       </c>
@@ -6702,7 +6701,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="485" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>496</v>
       </c>
@@ -6710,7 +6709,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="486" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>497</v>
       </c>
@@ -6721,7 +6720,7 @@
         <v>40618</v>
       </c>
     </row>
-    <row r="487" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>498</v>
       </c>
@@ -6729,7 +6728,7 @@
         <v>40618</v>
       </c>
     </row>
-    <row r="488" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>499</v>
       </c>
@@ -6737,7 +6736,7 @@
         <v>40618</v>
       </c>
     </row>
-    <row r="489" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>500</v>
       </c>
@@ -6745,7 +6744,7 @@
         <v>40618</v>
       </c>
     </row>
-    <row r="490" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>501</v>
       </c>
@@ -6753,7 +6752,7 @@
         <v>40618</v>
       </c>
     </row>
-    <row r="491" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>502</v>
       </c>
@@ -6764,7 +6763,7 @@
         <v>40618</v>
       </c>
     </row>
-    <row r="492" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>503</v>
       </c>
@@ -6772,7 +6771,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="493" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>504</v>
       </c>
@@ -6780,7 +6779,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="494" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>505</v>
       </c>
@@ -6788,7 +6787,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="495" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>506</v>
       </c>
@@ -6796,7 +6795,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="496" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>507</v>
       </c>
@@ -6804,7 +6803,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="497" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>508</v>
       </c>
@@ -6812,7 +6811,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="498" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>509</v>
       </c>
@@ -6823,7 +6822,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="499" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>510</v>
       </c>
@@ -6831,7 +6830,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="500" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>511</v>
       </c>
@@ -6839,7 +6838,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="501" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>512</v>
       </c>
@@ -6847,7 +6846,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="502" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>513</v>
       </c>
@@ -6855,7 +6854,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="503" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>514</v>
       </c>
@@ -6863,7 +6862,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="504" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>515</v>
       </c>
@@ -6871,7 +6870,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="505" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>516</v>
       </c>
@@ -6879,7 +6878,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="506" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>517</v>
       </c>
@@ -6887,7 +6886,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="507" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>518</v>
       </c>
@@ -6895,7 +6894,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="508" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>519</v>
       </c>
@@ -6903,7 +6902,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="509" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>520</v>
       </c>
@@ -6911,7 +6910,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="510" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>521</v>
       </c>
@@ -6919,7 +6918,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="511" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>522</v>
       </c>
@@ -6927,7 +6926,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="512" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>523</v>
       </c>
@@ -6935,7 +6934,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="513" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>524</v>
       </c>
@@ -6943,7 +6942,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="514" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>525</v>
       </c>
@@ -6951,7 +6950,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="515" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>526</v>
       </c>
@@ -6959,7 +6958,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="516" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>527</v>
       </c>
@@ -6967,7 +6966,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="517" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>528</v>
       </c>
@@ -6975,7 +6974,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="518" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>529</v>
       </c>
@@ -6983,7 +6982,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="519" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>530</v>
       </c>
@@ -6991,7 +6990,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="520" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>531</v>
       </c>
@@ -6999,7 +6998,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="521" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>532</v>
       </c>
@@ -7007,7 +7006,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="522" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>533</v>
       </c>
@@ -7015,7 +7014,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="523" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>534</v>
       </c>
@@ -7023,7 +7022,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="524" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>535</v>
       </c>
@@ -7031,7 +7030,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="525" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>536</v>
       </c>
@@ -7039,7 +7038,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="526" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>537</v>
       </c>
@@ -7047,7 +7046,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="527" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>538</v>
       </c>
@@ -7055,7 +7054,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="528" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>539</v>
       </c>
@@ -7063,7 +7062,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="529" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>540</v>
       </c>
@@ -7071,7 +7070,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="530" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>541</v>
       </c>
@@ -7079,7 +7078,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="531" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>542</v>
       </c>
@@ -7087,7 +7086,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="532" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>543</v>
       </c>
@@ -7095,7 +7094,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="533" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>544</v>
       </c>
@@ -7103,7 +7102,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="534" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>545</v>
       </c>
@@ -7111,7 +7110,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="535" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>546</v>
       </c>
@@ -7119,7 +7118,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="536" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>547</v>
       </c>
@@ -7127,7 +7126,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="537" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>548</v>
       </c>
@@ -7135,7 +7134,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="538" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>549</v>
       </c>
@@ -7143,7 +7142,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="539" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>550</v>
       </c>
@@ -7151,7 +7150,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="540" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>551</v>
       </c>
@@ -7159,7 +7158,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="541" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>552</v>
       </c>
@@ -7167,7 +7166,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="542" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>553</v>
       </c>
@@ -7175,7 +7174,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="543" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>554</v>
       </c>
@@ -7183,7 +7182,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="544" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>555</v>
       </c>
@@ -7191,7 +7190,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="545" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>556</v>
       </c>
@@ -7199,7 +7198,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="546" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>557</v>
       </c>
@@ -7207,7 +7206,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="547" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>558</v>
       </c>
@@ -7215,7 +7214,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="548" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>559</v>
       </c>
@@ -7223,7 +7222,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="549" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>560</v>
       </c>
@@ -7231,7 +7230,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="550" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>561</v>
       </c>
@@ -7239,7 +7238,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="551" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>562</v>
       </c>
@@ -7247,7 +7246,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="552" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>563</v>
       </c>
@@ -7255,7 +7254,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="553" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>564</v>
       </c>
@@ -7263,7 +7262,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="554" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>565</v>
       </c>
@@ -7271,7 +7270,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="555" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>566</v>
       </c>
@@ -7279,7 +7278,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="556" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>567</v>
       </c>
@@ -7287,7 +7286,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="557" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>568</v>
       </c>
@@ -7295,7 +7294,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="558" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>569</v>
       </c>
@@ -7303,7 +7302,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="559" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>570</v>
       </c>
@@ -7311,7 +7310,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="560" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>571</v>
       </c>
@@ -7319,7 +7318,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="561" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>572</v>
       </c>
@@ -7327,7 +7326,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="562" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>573</v>
       </c>
@@ -7335,7 +7334,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="563" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>574</v>
       </c>
@@ -7343,7 +7342,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="564" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>575</v>
       </c>
@@ -7351,7 +7350,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="565" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>576</v>
       </c>
@@ -7359,7 +7358,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="566" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>577</v>
       </c>
@@ -7367,7 +7366,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="567" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>578</v>
       </c>
@@ -7375,7 +7374,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="568" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>579</v>
       </c>
@@ -7383,7 +7382,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="569" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>580</v>
       </c>
@@ -7391,7 +7390,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="570" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>581</v>
       </c>
@@ -7399,7 +7398,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="571" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>582</v>
       </c>
@@ -7407,7 +7406,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="572" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>583</v>
       </c>
@@ -7415,7 +7414,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="573" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>584</v>
       </c>
@@ -7423,7 +7422,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="574" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>585</v>
       </c>
@@ -7431,7 +7430,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="575" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>586</v>
       </c>
@@ -7439,7 +7438,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="576" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>587</v>
       </c>
@@ -7447,7 +7446,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="577" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>588</v>
       </c>
@@ -7455,7 +7454,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="578" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>589</v>
       </c>
@@ -7463,7 +7462,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="579" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>590</v>
       </c>
@@ -7471,7 +7470,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="580" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>591</v>
       </c>
@@ -7479,7 +7478,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="581" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>592</v>
       </c>
@@ -7487,7 +7486,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="582" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>593</v>
       </c>
@@ -7495,7 +7494,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="583" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>594</v>
       </c>
@@ -7503,7 +7502,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="584" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>595</v>
       </c>
@@ -7511,7 +7510,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="585" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>596</v>
       </c>
@@ -7519,7 +7518,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="586" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>597</v>
       </c>
@@ -7527,7 +7526,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="587" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>598</v>
       </c>
@@ -7535,7 +7534,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="588" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>599</v>
       </c>
@@ -7543,7 +7542,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="589" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>600</v>
       </c>
@@ -7551,7 +7550,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="590" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>601</v>
       </c>
@@ -7559,7 +7558,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="591" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>602</v>
       </c>
@@ -7567,7 +7566,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="592" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>603</v>
       </c>
@@ -7575,7 +7574,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="593" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>604</v>
       </c>
@@ -7583,7 +7582,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="594" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>605</v>
       </c>
@@ -7591,7 +7590,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="595" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>606</v>
       </c>
@@ -7599,7 +7598,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="596" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>607</v>
       </c>
@@ -7607,7 +7606,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="597" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>608</v>
       </c>
@@ -7615,7 +7614,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="598" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>609</v>
       </c>
@@ -7623,7 +7622,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="599" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>610</v>
       </c>
@@ -7631,7 +7630,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="600" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>611</v>
       </c>
@@ -7639,7 +7638,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="601" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>612</v>
       </c>
@@ -7647,7 +7646,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="602" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>613</v>
       </c>
@@ -7655,7 +7654,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="603" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>614</v>
       </c>
@@ -7663,7 +7662,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="604" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>615</v>
       </c>
@@ -7671,7 +7670,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="605" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>616</v>
       </c>
@@ -7682,7 +7681,7 @@
         <v>40619</v>
       </c>
     </row>
-    <row r="606" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>617</v>
       </c>
@@ -7690,7 +7689,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="607" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>618</v>
       </c>
@@ -7698,7 +7697,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="608" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>619</v>
       </c>
@@ -7706,7 +7705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="609" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>620</v>
       </c>
@@ -7714,7 +7713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="610" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>621</v>
       </c>
@@ -7722,7 +7721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="611" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>622</v>
       </c>
@@ -7730,7 +7729,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="612" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>623</v>
       </c>
@@ -7741,7 +7740,7 @@
         <v>40620</v>
       </c>
     </row>
-    <row r="613" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>624</v>
       </c>
@@ -7749,7 +7748,7 @@
         <v>40620</v>
       </c>
     </row>
-    <row r="614" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>625</v>
       </c>
@@ -7757,7 +7756,7 @@
         <v>40620</v>
       </c>
     </row>
-    <row r="615" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>626</v>
       </c>
@@ -7765,7 +7764,7 @@
         <v>40620</v>
       </c>
     </row>
-    <row r="616" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>627</v>
       </c>
@@ -7776,7 +7775,7 @@
         <v>40620</v>
       </c>
     </row>
-    <row r="617" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>628</v>
       </c>
@@ -7784,7 +7783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="618" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>629</v>
       </c>
@@ -7798,7 +7797,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="619" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>630</v>
       </c>
@@ -7806,7 +7805,7 @@
         <v>40621</v>
       </c>
     </row>
-    <row r="620" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>631</v>
       </c>
@@ -7814,7 +7813,7 @@
         <v>40621</v>
       </c>
     </row>
-    <row r="621" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>632</v>
       </c>
@@ -7822,7 +7821,7 @@
         <v>40621</v>
       </c>
     </row>
-    <row r="622" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>633</v>
       </c>
@@ -7830,7 +7829,7 @@
         <v>40621</v>
       </c>
     </row>
-    <row r="623" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>634</v>
       </c>
@@ -7838,7 +7837,7 @@
         <v>40621</v>
       </c>
     </row>
-    <row r="624" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>635</v>
       </c>
@@ -7846,7 +7845,7 @@
         <v>40621</v>
       </c>
     </row>
-    <row r="625" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>636</v>
       </c>
@@ -7854,7 +7853,7 @@
         <v>40621</v>
       </c>
     </row>
-    <row r="626" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>637</v>
       </c>
@@ -7862,7 +7861,7 @@
         <v>40621</v>
       </c>
     </row>
-    <row r="627" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>638</v>
       </c>
@@ -7870,7 +7869,7 @@
         <v>40621</v>
       </c>
     </row>
-    <row r="628" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>639</v>
       </c>
@@ -7878,7 +7877,7 @@
         <v>40621</v>
       </c>
     </row>
-    <row r="629" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>640</v>
       </c>
@@ -7886,7 +7885,7 @@
         <v>40621</v>
       </c>
     </row>
-    <row r="630" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>641</v>
       </c>
@@ -7894,7 +7893,7 @@
         <v>40621</v>
       </c>
     </row>
-    <row r="631" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>642</v>
       </c>
@@ -7902,7 +7901,7 @@
         <v>40621</v>
       </c>
     </row>
-    <row r="632" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>643</v>
       </c>
@@ -7910,7 +7909,7 @@
         <v>40621</v>
       </c>
     </row>
-    <row r="633" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>644</v>
       </c>
@@ -7918,7 +7917,7 @@
         <v>40621</v>
       </c>
     </row>
-    <row r="634" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>645</v>
       </c>
@@ -7926,7 +7925,7 @@
         <v>40621</v>
       </c>
     </row>
-    <row r="635" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>646</v>
       </c>
@@ -7934,7 +7933,7 @@
         <v>40621</v>
       </c>
     </row>
-    <row r="636" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>647</v>
       </c>
@@ -7942,7 +7941,7 @@
         <v>40621</v>
       </c>
     </row>
-    <row r="637" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>648</v>
       </c>
@@ -7950,7 +7949,7 @@
         <v>40621</v>
       </c>
     </row>
-    <row r="638" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>649</v>
       </c>
@@ -7958,7 +7957,7 @@
         <v>40621</v>
       </c>
     </row>
-    <row r="639" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>650</v>
       </c>
@@ -7966,7 +7965,7 @@
         <v>40621</v>
       </c>
     </row>
-    <row r="640" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>651</v>
       </c>
@@ -7977,7 +7976,7 @@
         <v>40621</v>
       </c>
     </row>
-    <row r="641" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>652</v>
       </c>
@@ -7985,7 +7984,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="642" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>653</v>
       </c>
@@ -7996,7 +7995,7 @@
         <v>40622</v>
       </c>
     </row>
-    <row r="643" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>654</v>
       </c>
@@ -8004,7 +8003,7 @@
         <v>40622</v>
       </c>
     </row>
-    <row r="644" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>655</v>
       </c>
@@ -8012,7 +8011,7 @@
         <v>40622</v>
       </c>
     </row>
-    <row r="645" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>656</v>
       </c>
@@ -8020,7 +8019,7 @@
         <v>40622</v>
       </c>
     </row>
-    <row r="646" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>657</v>
       </c>
@@ -8031,7 +8030,7 @@
         <v>40622</v>
       </c>
     </row>
-    <row r="647" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>658</v>
       </c>
@@ -8039,7 +8038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="648" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>659</v>
       </c>
@@ -8047,7 +8046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="649" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>660</v>
       </c>
@@ -8055,7 +8054,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="650" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>661</v>
       </c>
@@ -8066,7 +8065,7 @@
         <v>40623</v>
       </c>
     </row>
-    <row r="651" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>662</v>
       </c>
@@ -8074,7 +8073,7 @@
         <v>40623</v>
       </c>
     </row>
-    <row r="652" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>663</v>
       </c>
@@ -8082,7 +8081,7 @@
         <v>40623</v>
       </c>
     </row>
-    <row r="653" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>664</v>
       </c>
@@ -8090,7 +8089,7 @@
         <v>40623</v>
       </c>
     </row>
-    <row r="654" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>665</v>
       </c>
@@ -8098,7 +8097,7 @@
         <v>40623</v>
       </c>
     </row>
-    <row r="655" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>666</v>
       </c>
@@ -8106,7 +8105,7 @@
         <v>40623</v>
       </c>
     </row>
-    <row r="656" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>667</v>
       </c>
@@ -8114,7 +8113,7 @@
         <v>40623</v>
       </c>
     </row>
-    <row r="657" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>668</v>
       </c>
@@ -8122,7 +8121,7 @@
         <v>40623</v>
       </c>
     </row>
-    <row r="658" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>669</v>
       </c>
@@ -8130,7 +8129,7 @@
         <v>40623</v>
       </c>
     </row>
-    <row r="659" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>670</v>
       </c>
@@ -8138,7 +8137,7 @@
         <v>40623</v>
       </c>
     </row>
-    <row r="660" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>671</v>
       </c>
@@ -8146,7 +8145,7 @@
         <v>40623</v>
       </c>
     </row>
-    <row r="661" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>672</v>
       </c>
@@ -8154,7 +8153,7 @@
         <v>40623</v>
       </c>
     </row>
-    <row r="662" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>673</v>
       </c>
@@ -8162,7 +8161,7 @@
         <v>40623</v>
       </c>
     </row>
-    <row r="663" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>674</v>
       </c>
@@ -8170,7 +8169,7 @@
         <v>40623</v>
       </c>
     </row>
-    <row r="664" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>675</v>
       </c>
@@ -8181,7 +8180,7 @@
         <v>40623</v>
       </c>
     </row>
-    <row r="665" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>676</v>
       </c>
@@ -8189,7 +8188,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="666" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>677</v>
       </c>
@@ -8200,7 +8199,7 @@
         <v>40624</v>
       </c>
     </row>
-    <row r="667" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>678</v>
       </c>
@@ -8208,7 +8207,7 @@
         <v>40624</v>
       </c>
     </row>
-    <row r="668" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>679</v>
       </c>
@@ -8216,7 +8215,7 @@
         <v>40624</v>
       </c>
     </row>
-    <row r="669" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>680</v>
       </c>
@@ -8224,7 +8223,7 @@
         <v>40624</v>
       </c>
     </row>
-    <row r="670" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>681</v>
       </c>
@@ -8232,7 +8231,7 @@
         <v>40624</v>
       </c>
     </row>
-    <row r="671" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>682</v>
       </c>
@@ -8240,7 +8239,7 @@
         <v>40624</v>
       </c>
     </row>
-    <row r="672" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>683</v>
       </c>
@@ -8248,7 +8247,7 @@
         <v>40624</v>
       </c>
     </row>
-    <row r="673" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>684</v>
       </c>
@@ -8256,7 +8255,7 @@
         <v>40624</v>
       </c>
     </row>
-    <row r="674" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>685</v>
       </c>
@@ -8264,7 +8263,7 @@
         <v>40624</v>
       </c>
     </row>
-    <row r="675" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>686</v>
       </c>
@@ -8272,7 +8271,7 @@
         <v>40624</v>
       </c>
     </row>
-    <row r="676" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>687</v>
       </c>
@@ -8283,7 +8282,7 @@
         <v>40624</v>
       </c>
     </row>
-    <row r="677" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>688</v>
       </c>
@@ -8291,7 +8290,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="678" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>689</v>
       </c>
@@ -8302,7 +8301,7 @@
         <v>40625</v>
       </c>
     </row>
-    <row r="679" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>690</v>
       </c>
@@ -8310,7 +8309,7 @@
         <v>40625</v>
       </c>
     </row>
-    <row r="680" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>691</v>
       </c>
@@ -8318,7 +8317,7 @@
         <v>40625</v>
       </c>
     </row>
-    <row r="681" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>692</v>
       </c>
@@ -8326,7 +8325,7 @@
         <v>40625</v>
       </c>
     </row>
-    <row r="682" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>693</v>
       </c>
@@ -8337,7 +8336,7 @@
         <v>40625</v>
       </c>
     </row>
-    <row r="683" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>694</v>
       </c>
@@ -8345,7 +8344,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="684" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>695</v>
       </c>
@@ -8353,7 +8352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="685" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>696</v>
       </c>
@@ -8361,7 +8360,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="686" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>697</v>
       </c>
@@ -8369,7 +8368,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="687" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>698</v>
       </c>
@@ -8377,7 +8376,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="688" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>699</v>
       </c>
@@ -8385,7 +8384,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="689" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>700</v>
       </c>
@@ -8393,7 +8392,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="690" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>701</v>
       </c>
@@ -8401,7 +8400,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="691" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>702</v>
       </c>
